--- a/Level Renderer Project/Project Rubric.xlsx
+++ b/Level Renderer Project/Project Rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qsync\Graphics I &amp; II Shared Staff Folder\Project &amp; Portfolio IV\Week_3_Handout\Assignments\The Level Renderer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikyt\Documents\FullSail\13.2. 3-DContentCreation\LevelRendererMiguel\Level Renderer Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C2B1F7-3385-405B-9FB5-6081E9791C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF3FF2-A3C6-4176-A045-F56ACABD4433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="195" windowWidth="25335" windowHeight="16785" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>1. One or More Blender Game Levels to export from (.blend)</t>
   </si>
@@ -1447,6 +1447,18 @@
   </si>
   <si>
     <t>KEY FEATURES - 33% [unlocked by core, pick three]</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>CMMENTS</t>
+  </si>
+  <si>
+    <t>Kinda Done</t>
+  </si>
+  <si>
+    <t>Maximum Count of lights is only 2 because UBO data got filled</t>
   </si>
 </sst>
 </file>
@@ -2095,19 +2107,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.7109375" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2117,8 +2131,11 @@
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -2128,8 +2145,11 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
@@ -2139,8 +2159,11 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
@@ -2150,8 +2173,11 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
@@ -2161,8 +2187,11 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2172,8 +2201,11 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2215,11 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -2194,8 +2229,11 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2205,8 +2243,11 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -2216,8 +2257,11 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -2227,8 +2271,11 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2240,8 +2287,11 @@
         <f>SUM(C2:C11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,7 +2302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -2262,8 +2312,11 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -2273,8 +2326,14 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
@@ -2284,8 +2343,11 @@
       <c r="C16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
@@ -2296,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
@@ -2306,8 +2368,11 @@
       <c r="C18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
@@ -2318,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -2329,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -2340,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -2351,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
@@ -2362,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>42</v>
       </c>
@@ -2373,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
@@ -2384,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -2396,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -2407,7 +2472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
@@ -2417,8 +2482,11 @@
       <c r="C28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>12</v>
       </c>
@@ -2429,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>20</v>
       </c>
@@ -2440,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>13</v>
       </c>
@@ -2451,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
